--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E20" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6652,15 +6652,15 @@
         <v>430145</v>
       </c>
       <c r="C3" s="6">
-        <v>149283.34</v>
+        <v>154538.93</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>280861.66000000003</v>
+        <v>275606.07</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>34.70535284613328</v>
+        <v>35.92717107022051</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -6671,15 +6671,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>256753.44</v>
+        <v>284341.46000000002</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>211110.56</v>
+        <v>183522.53999999998</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>54.877793546842668</v>
+        <v>60.774383154078961</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6690,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>191024.17</v>
+        <v>315419.15999999997</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>251146.83</v>
+        <v>126751.84000000003</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>43.201424335833877</v>
+        <v>71.334203283345119</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6728,15 +6728,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>326872.13</v>
+        <v>348338.09</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>79190.87</v>
+        <v>57724.909999999974</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>80.497885796046418</v>
+        <v>85.784247764509459</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6747,15 +6747,15 @@
         <v>545683</v>
       </c>
       <c r="C8" s="6">
-        <v>420986.2</v>
+        <v>446789.9</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>124696.79999999999</v>
+        <v>98893.099999999977</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>77.148490973697193</v>
+        <v>81.877188770769848</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6766,15 +6766,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>282274.88</v>
+        <v>288061.15999999997</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>122683.12</v>
+        <v>116896.84000000003</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>69.704729873221424</v>
+        <v>71.133589162332882</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6785,15 +6785,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>277879.76</v>
+        <v>293348.28000000003</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>288850.24</v>
+        <v>273381.71999999997</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>49.032124644892633</v>
+        <v>51.761558414059607</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6804,15 +6804,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>446867.9</v>
+        <v>522169.72</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>130491.09999999998</v>
+        <v>55189.280000000028</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>77.398620269191269</v>
+        <v>90.441080852641065</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6823,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>265913.96000000002</v>
+        <v>279846.15999999997</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>277522.03999999998</v>
+        <v>263589.84000000003</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>48.931973590266388</v>
+        <v>51.495697745456688</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6842,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>367370.17</v>
+        <v>393534.31</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>155004.83000000002</v>
+        <v>128840.69</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>70.326905001196451</v>
+        <v>75.3355941612826</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6861,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>325098.08</v>
+        <v>360092.36</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>177007.91999999998</v>
+        <v>142013.64000000001</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>64.746902048571414</v>
+        <v>71.716402512616853</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6913,15 +6913,15 @@
         <v>840015</v>
       </c>
       <c r="C18" s="6">
-        <v>288210.06</v>
+        <v>375204.34</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>551804.93999999994</v>
+        <v>464810.66</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>34.31010874805807</v>
+        <v>44.666385719302639</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>7399603.7400000002</v>
+        <v>7862753.5199999996</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>2086732.2599999998</v>
+        <v>1623582.4800000004</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>78.002758283071572</v>
+        <v>82.885041390058291</v>
       </c>
     </row>
   </sheetData>

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6671,15 +6671,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>284341.46000000002</v>
+        <v>299029.15999999997</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>183522.53999999998</v>
+        <v>168834.84000000003</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>60.774383154078961</v>
+        <v>63.913692868012916</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6690,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>315419.15999999997</v>
+        <v>324033.42</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>126751.84000000003</v>
+        <v>118137.58000000002</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>71.334203283345119</v>
+        <v>73.282377179869329</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6728,15 +6728,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>348338.09</v>
+        <v>383217.49</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>57724.909999999974</v>
+        <v>22845.510000000009</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>85.784247764509459</v>
+        <v>94.373900109096368</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6766,15 +6766,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>288061.15999999997</v>
+        <v>306722.34000000003</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>116896.84000000003</v>
+        <v>98235.659999999974</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>71.133589162332882</v>
+        <v>75.741765812750955</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6804,15 +6804,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>522169.72</v>
+        <v>527187.31999999995</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>55189.280000000028</v>
+        <v>50171.680000000051</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>90.441080852641065</v>
+        <v>91.310141523731318</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6823,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>279846.15999999997</v>
+        <v>295897.14</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>263589.84000000003</v>
+        <v>247538.86</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>51.495697745456688</v>
+        <v>54.449307738169729</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6842,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>393534.31</v>
+        <v>405108.83</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>128840.69</v>
+        <v>117266.16999999998</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>75.3355941612826</v>
+        <v>77.551343383584594</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6861,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>360092.36</v>
+        <v>371134.56</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>142013.64000000001</v>
+        <v>130971.44</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>71.716402512616853</v>
+        <v>73.915579578814032</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>7862753.5199999996</v>
+        <v>7983281.3599999994</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>1623582.4800000004</v>
+        <v>1503054.6400000006</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>82.885041390058291</v>
+        <v>84.155582935287129</v>
       </c>
     </row>
   </sheetData>

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6671,15 +6671,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>299029.15999999997</v>
+        <v>336610.96</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>168834.84000000003</v>
+        <v>131253.03999999998</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>63.913692868012916</v>
+        <v>71.94632628285143</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6690,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>324033.42</v>
+        <v>388586.73</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>118137.58000000002</v>
+        <v>53584.270000000019</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>73.282377179869329</v>
+        <v>87.881550350430032</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6728,15 +6728,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>383217.49</v>
+        <v>397828.17</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>22845.510000000009</v>
+        <v>8234.8300000000163</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>94.373900109096368</v>
+        <v>97.972031433546022</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6766,15 +6766,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>306722.34000000003</v>
+        <v>323755.7</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>98235.659999999974</v>
+        <v>81202.299999999988</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>75.741765812750955</v>
+        <v>79.947969912929253</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6785,15 +6785,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>293348.28000000003</v>
+        <v>313712.2</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>273381.71999999997</v>
+        <v>253017.8</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>51.761558414059607</v>
+        <v>55.354789758791668</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6804,15 +6804,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>527187.31999999995</v>
+        <v>532406.19999999995</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>50171.680000000051</v>
+        <v>44952.800000000047</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>91.310141523731318</v>
+        <v>92.214064386283042</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6823,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>295897.14</v>
+        <v>319913.32</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>247538.86</v>
+        <v>223522.68</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>54.449307738169729</v>
+        <v>58.868628504552518</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6842,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>405108.83</v>
+        <v>433987.67</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>117266.16999999998</v>
+        <v>88387.330000000016</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>77.551343383584594</v>
+        <v>83.079716678631243</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6861,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>371134.56</v>
+        <v>399357.56</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>130971.44</v>
+        <v>102748.44</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>73.915579578814032</v>
+        <v>79.536504244123748</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6913,15 +6913,15 @@
         <v>840015</v>
       </c>
       <c r="C18" s="6">
-        <v>375204.34</v>
+        <v>658265.86</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>464810.66</v>
+        <v>181749.14</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>44.666385719302639</v>
+        <v>78.363583983619336</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>7983281.3599999994</v>
+        <v>8506822.8499999996</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>1503054.6400000006</v>
+        <v>979513.15000000037</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>84.155582935287129</v>
+        <v>89.674483910331659</v>
       </c>
     </row>
   </sheetData>

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E20" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6671,15 +6671,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>336610.96</v>
+        <v>346826.94</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>131253.03999999998</v>
+        <v>121037.06</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>71.94632628285143</v>
+        <v>74.129862524152315</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6690,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>388586.73</v>
+        <v>401539.83</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>53584.270000000019</v>
+        <v>40631.169999999984</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>87.881550350430032</v>
+        <v>90.810982628892447</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6709,15 +6709,15 @@
         <v>425207</v>
       </c>
       <c r="C6" s="6">
-        <v>427539.83</v>
+        <v>447751.35</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-2332.8300000000163</v>
+        <v>-22544.349999999977</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>100.54863395945975</v>
+        <v>105.30197056962844</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6728,15 +6728,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>397828.17</v>
+        <v>409530.25</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>8234.8300000000163</v>
+        <v>-3467.25</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>97.972031433546022</v>
+        <v>100.8538699659905</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6766,15 +6766,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>323755.7</v>
+        <v>335858.82</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>81202.299999999988</v>
+        <v>69099.179999999993</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>79.947969912929253</v>
+        <v>82.93670454713822</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6785,15 +6785,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>313712.2</v>
+        <v>339735.5</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>253017.8</v>
+        <v>226994.5</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>55.354789758791668</v>
+        <v>59.946623612655053</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6804,15 +6804,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>532406.19999999995</v>
+        <v>568798.52</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>44952.800000000047</v>
+        <v>8560.4799999999814</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>92.214064386283042</v>
+        <v>98.517303791921492</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6823,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>319913.32</v>
+        <v>352143.14</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>223522.68</v>
+        <v>191292.86</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>58.868628504552518</v>
+        <v>64.799376559521278</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6842,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>433987.67</v>
+        <v>452262.99</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>88387.330000000016</v>
+        <v>70112.010000000009</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>83.079716678631243</v>
+        <v>86.57822254127781</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6861,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>399357.56</v>
+        <v>418596.84</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>102748.44</v>
+        <v>83509.159999999974</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>79.536504244123748</v>
+        <v>83.36822105292508</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>8506822.8499999996</v>
+        <v>8706168.6899999995</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>979513.15000000037</v>
+        <v>780167.31000000052</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>89.674483910331659</v>
+        <v>91.775883649914988</v>
       </c>
     </row>
   </sheetData>

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6671,15 +6671,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>346826.94</v>
+        <v>359075</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>121037.06</v>
+        <v>108789</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>74.129862524152315</v>
+        <v>76.74773010960449</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6690,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>401539.83</v>
+        <v>418002.23</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>40631.169999999984</v>
+        <v>24168.770000000019</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>90.810982628892447</v>
+        <v>94.534067136922133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6709,15 +6709,15 @@
         <v>425207</v>
       </c>
       <c r="C6" s="6">
-        <v>447751.35</v>
+        <v>472619.35</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-22544.349999999977</v>
+        <v>-47412.349999999977</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>105.30197056962844</v>
+        <v>111.15041615025153</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6728,15 +6728,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>409530.25</v>
+        <v>410814.87</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-3467.25</v>
+        <v>-4751.8699999999953</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>100.8538699659905</v>
+        <v>101.17022974267539</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6766,15 +6766,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>335858.82</v>
+        <v>336745.54</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>69099.179999999993</v>
+        <v>68212.460000000021</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>82.93670454713822</v>
+        <v>83.155670464591381</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6785,15 +6785,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>339735.5</v>
+        <v>340743.02</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>226994.5</v>
+        <v>225986.97999999998</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>59.946623612655053</v>
+        <v>60.124401390432837</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6804,15 +6804,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>568798.52</v>
+        <v>570853.96</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>8560.4799999999814</v>
+        <v>6505.0400000000373</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>98.517303791921492</v>
+        <v>98.873311059496771</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6823,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>352143.14</v>
+        <v>357202.51</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>191292.86</v>
+        <v>186233.49</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>64.799376559521278</v>
+        <v>65.730373033807112</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6842,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>452262.99</v>
+        <v>467915.83</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>70112.010000000009</v>
+        <v>54459.169999999984</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>86.57822254127781</v>
+        <v>89.574698253170624</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6861,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>418596.84</v>
+        <v>431321.36</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>83509.159999999974</v>
+        <v>70784.640000000014</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>83.36822105292508</v>
+        <v>85.902450876906457</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6913,15 +6913,15 @@
         <v>840015</v>
       </c>
       <c r="C18" s="6">
-        <v>658265.86</v>
+        <v>701255.3</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>181749.14</v>
+        <v>138759.69999999995</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>78.363583983619336</v>
+        <v>83.481283072326093</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>8706168.6899999995</v>
+        <v>8841407.6199999992</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>780167.31000000052</v>
+        <v>644928.38000000082</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>91.775883649914988</v>
+        <v>93.201501823253992</v>
       </c>
     </row>
   </sheetData>

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6652,15 +6652,15 @@
         <v>430145</v>
       </c>
       <c r="C3" s="6">
-        <v>154538.93</v>
+        <v>155949.49</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>275606.07</v>
+        <v>274195.51</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>35.92717107022051</v>
+        <v>36.255097699612918</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -6671,15 +6671,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>359075</v>
+        <v>395699.36</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>108789</v>
+        <v>72164.640000000014</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>76.74773010960449</v>
+        <v>84.575722859634411</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6690,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>418002.23</v>
+        <v>469644.79</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>24168.770000000019</v>
+        <v>-27473.789999999979</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>94.534067136922133</v>
+        <v>106.21338577156801</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6709,15 +6709,15 @@
         <v>425207</v>
       </c>
       <c r="C6" s="6">
-        <v>472619.35</v>
+        <v>495435.33</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-47412.349999999977</v>
+        <v>-70228.330000000016</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>111.15041615025153</v>
+        <v>116.51626854684896</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6728,15 +6728,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>410814.87</v>
+        <v>418512.15</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-4751.8699999999953</v>
+        <v>-12449.150000000023</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>101.17022974267539</v>
+        <v>103.06581737316624</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6747,15 +6747,15 @@
         <v>545683</v>
       </c>
       <c r="C8" s="6">
-        <v>446789.9</v>
+        <v>473212.82</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>98893.099999999977</v>
+        <v>72470.179999999993</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>81.877188770769848</v>
+        <v>86.719362706919583</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6766,15 +6766,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>336745.54</v>
+        <v>358038.56</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>68212.460000000021</v>
+        <v>46919.44</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>83.155670464591381</v>
+        <v>88.413751549543406</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6785,15 +6785,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>340743.02</v>
+        <v>381273.91</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>225986.97999999998</v>
+        <v>185456.09000000003</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>60.124401390432837</v>
+        <v>67.276112081590881</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6804,15 +6804,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>570853.96</v>
+        <v>612665.56000000006</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>6505.0400000000373</v>
+        <v>-35306.560000000056</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>98.873311059496771</v>
+        <v>106.11518310098224</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6823,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>357202.51</v>
+        <v>365165.41</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>186233.49</v>
+        <v>178270.59000000003</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>65.730373033807112</v>
+        <v>67.195660574566276</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6842,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>467915.83</v>
+        <v>488432.11</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>54459.169999999984</v>
+        <v>33942.890000000014</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>89.574698253170624</v>
+        <v>93.50219861210816</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6861,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>431321.36</v>
+        <v>462275.74</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>70784.640000000014</v>
+        <v>39830.260000000009</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>85.902450876906457</v>
+        <v>92.067360278506925</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6913,15 +6913,15 @@
         <v>840015</v>
       </c>
       <c r="C18" s="6">
-        <v>701255.3</v>
+        <v>764123.3</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>138759.69999999995</v>
+        <v>75891.699999999953</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>83.481283072326093</v>
+        <v>90.965435141039151</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>8841407.6199999992</v>
+        <v>9213958.3499999996</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>644928.38000000082</v>
+        <v>272377.65000000037</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>93.201501823253992</v>
+        <v>97.128737059281889</v>
       </c>
     </row>
   </sheetData>

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6268,7 +6268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -6300,6 +6300,7 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6603,10 +6604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6619,13 +6620,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2027</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="22.5">
       <c r="A2" s="1" t="s">
@@ -6652,15 +6653,15 @@
         <v>430145</v>
       </c>
       <c r="C3" s="6">
-        <v>155949.49</v>
+        <v>161174.66</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>274195.51</v>
+        <v>268970.33999999997</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>36.255097699612918</v>
+        <v>37.469843889851099</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -6671,15 +6672,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>395699.36</v>
+        <v>440791.88</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>72164.640000000014</v>
+        <v>27072.119999999995</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>84.575722859634411</v>
+        <v>94.21367747892549</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6690,15 +6691,15 @@
         <v>442171</v>
       </c>
       <c r="C5" s="6">
-        <v>469644.79</v>
+        <v>541698.31000000006</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-27473.789999999979</v>
+        <v>-99527.310000000056</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>106.21338577156801</v>
+        <v>122.50878280122397</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6709,15 +6710,15 @@
         <v>425207</v>
       </c>
       <c r="C6" s="6">
-        <v>495435.33</v>
+        <v>525276.66</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-70228.330000000016</v>
+        <v>-100069.66000000003</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>116.51626854684896</v>
+        <v>123.53433974511239</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6728,15 +6729,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>418512.15</v>
+        <v>441762.18</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-12449.150000000023</v>
+        <v>-35699.179999999993</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>103.06581737316624</v>
+        <v>108.79153727377279</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6747,15 +6748,15 @@
         <v>545683</v>
       </c>
       <c r="C8" s="6">
-        <v>473212.82</v>
+        <v>539114.68000000005</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>72470.179999999993</v>
+        <v>6568.3199999999488</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>86.719362706919583</v>
+        <v>98.796312144596783</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6766,15 +6767,15 @@
         <v>404958</v>
       </c>
       <c r="C9" s="6">
-        <v>358038.56</v>
+        <v>411252.56</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>46919.44</v>
+        <v>-6294.5599999999977</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>88.413751549543406</v>
+        <v>101.55437353997205</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6785,15 +6786,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>381273.91</v>
+        <v>588753.9</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>185456.09000000003</v>
+        <v>-22023.900000000023</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>67.276112081590881</v>
+        <v>103.8861362553597</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6804,15 +6805,15 @@
         <v>577359</v>
       </c>
       <c r="C11" s="6">
-        <v>612665.56000000006</v>
+        <v>653218.84</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>-35306.560000000056</v>
+        <v>-75859.839999999967</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>106.11518310098224</v>
+        <v>113.13911102104582</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6823,15 +6824,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>365165.41</v>
+        <v>375186.99</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>178270.59000000003</v>
+        <v>168249.01</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>67.195660574566276</v>
+        <v>69.039774692880115</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6842,15 +6843,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>488432.11</v>
+        <v>511930.27</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>33942.890000000014</v>
+        <v>10444.729999999981</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>93.50219861210816</v>
+        <v>98.000530270399622</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6861,15 +6862,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>462275.74</v>
+        <v>533016.92000000004</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>39830.260000000009</v>
+        <v>-30910.920000000042</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>92.067360278506925</v>
+        <v>106.15625385874696</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6880,13 +6881,13 @@
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="23.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>2026</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="22.5">
       <c r="A17" s="1" t="s">
@@ -6913,15 +6914,15 @@
         <v>840015</v>
       </c>
       <c r="C18" s="6">
-        <v>764123.3</v>
+        <v>843485.38</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>75891.699999999953</v>
+        <v>-3470.3800000000047</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>90.965435141039151</v>
+        <v>100.41313309881372</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6953,16 +6954,19 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>9213958.3499999996</v>
+        <v>9940193.0500000007</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>272377.65000000037</v>
+        <v>-453857.05000000075</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>97.128737059281889</v>
-      </c>
+        <v>104.78432400033059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6607,7 +6607,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6672,15 +6672,15 @@
         <v>467864</v>
       </c>
       <c r="C4" s="6">
-        <v>440791.88</v>
+        <v>521419.56</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>27072.119999999995</v>
+        <v>-53555.56</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>94.21367747892549</v>
+        <v>111.44682215344629</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6710,15 +6710,15 @@
         <v>425207</v>
       </c>
       <c r="C6" s="6">
-        <v>525276.66</v>
+        <v>544814.74</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-100069.66000000003</v>
+        <v>-119607.73999999999</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>123.53433974511239</v>
+        <v>128.12929702474324</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6729,15 +6729,15 @@
         <v>406063</v>
       </c>
       <c r="C7" s="6">
-        <v>441762.18</v>
+        <v>447366.94</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-35699.179999999993</v>
+        <v>-41303.94</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>108.79153727377279</v>
+        <v>110.17180585278639</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6748,15 +6748,15 @@
         <v>545683</v>
       </c>
       <c r="C8" s="6">
-        <v>539114.68000000005</v>
+        <v>549041.88</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>6568.3199999999488</v>
+        <v>-3358.8800000000047</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>98.796312144596783</v>
+        <v>100.61553685931209</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6786,15 +6786,15 @@
         <v>566730</v>
       </c>
       <c r="C10" s="6">
-        <v>588753.9</v>
+        <v>618572.93999999994</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>-22023.900000000023</v>
+        <v>-51842.939999999944</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>103.8861362553597</v>
+        <v>109.1477317241014</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6824,15 +6824,15 @@
         <v>543436</v>
       </c>
       <c r="C12" s="6">
-        <v>375186.99</v>
+        <v>377353.29</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>168249.01</v>
+        <v>166082.71000000002</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>69.039774692880115</v>
+        <v>69.438404890364282</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6843,15 +6843,15 @@
         <v>522375</v>
       </c>
       <c r="C13" s="7">
-        <v>511930.27</v>
+        <v>528998.77</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>10444.729999999981</v>
+        <v>-6623.7700000000186</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>98.000530270399622</v>
+        <v>101.26801052883465</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6862,15 +6862,15 @@
         <v>502106</v>
       </c>
       <c r="C14" s="6">
-        <v>533016.92000000004</v>
+        <v>552764.36</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>-30910.920000000042</v>
+        <v>-50658.359999999986</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>106.15625385874696</v>
+        <v>110.08917638904931</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6914,15 +6914,15 @@
         <v>840015</v>
       </c>
       <c r="C18" s="6">
-        <v>843485.38</v>
+        <v>931977.02</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>-3470.3800000000047</v>
+        <v>-91962.020000000019</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>100.41313309881372</v>
+        <v>110.947664029809</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6954,15 +6954,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>9940193.0500000007</v>
+        <v>10213183.690000001</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>-453857.05000000075</v>
+        <v>-726847.69000000134</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>104.78432400033059</v>
+        <v>107.66204876150287</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6607,7 +6607,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6650,18 +6650,18 @@
         <v>16</v>
       </c>
       <c r="B3" s="11">
-        <v>430145</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>161174.66</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>268970.33999999997</v>
-      </c>
-      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="e">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>37.469843889851099</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -6669,18 +6669,18 @@
         <v>17</v>
       </c>
       <c r="B4" s="11">
-        <v>467864</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>521419.56</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-53555.56</v>
-      </c>
-      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>111.44682215344629</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6688,18 +6688,18 @@
         <v>18</v>
       </c>
       <c r="B5" s="11">
-        <v>442171</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>541698.31000000006</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-99527.310000000056</v>
-      </c>
-      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>122.50878280122397</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6707,18 +6707,18 @@
         <v>1095</v>
       </c>
       <c r="B6" s="11">
-        <v>425207</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>544814.74</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-119607.73999999999</v>
-      </c>
-      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>128.12929702474324</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6726,18 +6726,18 @@
         <v>19</v>
       </c>
       <c r="B7" s="11">
-        <v>406063</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6">
-        <v>447366.94</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-41303.94</v>
-      </c>
-      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>110.17180585278639</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6745,18 +6745,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="11">
-        <v>545683</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>549041.88</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>-3358.8800000000047</v>
-      </c>
-      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>100.61553685931209</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6764,18 +6764,18 @@
         <v>1096</v>
       </c>
       <c r="B9" s="11">
-        <v>404958</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6">
-        <v>411252.56</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>-6294.5599999999977</v>
-      </c>
-      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>101.55437353997205</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6783,18 +6783,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="11">
-        <v>566730</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6">
-        <v>618572.93999999994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>-51842.939999999944</v>
-      </c>
-      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>109.1477317241014</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6802,18 +6802,18 @@
         <v>21</v>
       </c>
       <c r="B11" s="11">
-        <v>577359</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6">
-        <v>653218.84</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>-75859.839999999967</v>
-      </c>
-      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>113.13911102104582</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6821,18 +6821,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="11">
-        <v>543436</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6">
-        <v>377353.29</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>166082.71000000002</v>
-      </c>
-      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>69.438404890364282</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6840,18 +6840,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="11">
-        <v>522375</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>528998.77</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>-6623.7700000000186</v>
-      </c>
-      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>101.26801052883465</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6859,18 +6859,18 @@
         <v>22</v>
       </c>
       <c r="B14" s="11">
-        <v>502106</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <v>552764.36</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>-50658.359999999986</v>
-      </c>
-      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>110.08917638904931</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6911,18 +6911,18 @@
         <v>1179</v>
       </c>
       <c r="B18" s="11">
-        <v>840015</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>931977.02</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>-91962.020000000019</v>
-      </c>
-      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>110.947664029809</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6930,18 +6930,18 @@
         <v>23</v>
       </c>
       <c r="B19" s="11">
-        <v>2812224</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>3373529.82</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-561305.81999999983</v>
-      </c>
-      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>119.95949895883115</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -6950,19 +6950,19 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B3:B19)</f>
-        <v>9486336</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>10213183.690000001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>-726847.69000000134</v>
-      </c>
-      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>107.66204876150287</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6108,7 +6108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6180,13 +6180,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -6268,7 +6279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -6309,6 +6320,9 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6607,7 +6621,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6650,18 +6664,18 @@
         <v>16</v>
       </c>
       <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C3" s="21">
+        <v>6959.96</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="e">
+        <v>693040.04</v>
+      </c>
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>#DIV/0!</v>
+        <v>0.99428000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -6669,18 +6683,18 @@
         <v>17</v>
       </c>
       <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2942.44</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="e">
+        <v>697057.56</v>
+      </c>
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.42034857142857146</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6688,18 +6702,18 @@
         <v>18</v>
       </c>
       <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C5" s="21">
+        <v>35612.36</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="e">
+        <v>664387.64</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.0874800000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6707,18 +6721,18 @@
         <v>1095</v>
       </c>
       <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>31923.29</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="e">
+        <v>668076.71</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.5604700000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6726,18 +6740,18 @@
         <v>19</v>
       </c>
       <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C7" s="21">
+        <v>17204.330000000002</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="e">
+        <v>682795.67</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.4577614285714287</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6745,18 +6759,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="11">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="E8" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6764,18 +6778,18 @@
         <v>1096</v>
       </c>
       <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C9" s="21">
+        <v>21290.58</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="e">
+        <v>678709.42</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.0415114285714289</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6783,18 +6797,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C10" s="21">
+        <v>24236.799999999999</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="e">
+        <v>675763.19999999995</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.4623999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6802,18 +6816,18 @@
         <v>21</v>
       </c>
       <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C11" s="21">
+        <v>73950.86</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="e">
+        <v>626049.14</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10.564408571428572</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6821,18 +6835,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C12" s="21">
+        <v>8445.7000000000007</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="e">
+        <v>691554.3</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.2065285714285716</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6840,18 +6854,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C13" s="21">
+        <v>20286.259999999998</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="e">
+        <v>679713.74</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8980371428571425</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6859,18 +6873,18 @@
         <v>22</v>
       </c>
       <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>27235.56</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="e">
+        <v>672764.44</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.8907942857142861</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6911,18 +6925,18 @@
         <v>1179</v>
       </c>
       <c r="B18" s="11">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="E18" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6930,18 +6944,18 @@
         <v>23</v>
       </c>
       <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
+        <v>3000000</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1024787.79</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="e">
+        <v>1975212.21</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>34.159593000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -6950,19 +6964,19 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B3:B19)</f>
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>0</v>
+        <v>1294875.9300000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="e">
+        <v>11705124.07</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.9605840769230785</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -6108,7 +6108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6180,24 +6180,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -6279,7 +6268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -6320,9 +6309,6 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6621,7 +6607,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6664,18 +6650,18 @@
         <v>16</v>
       </c>
       <c r="B3" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C3" s="21">
-        <v>6959.96</v>
+        <v>446821</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14160.52</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>693040.04</v>
+        <v>432660.47999999998</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>0.99428000000000005</v>
+        <v>3.1691706522298637</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -6683,18 +6669,18 @@
         <v>17</v>
       </c>
       <c r="B4" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C4" s="21">
-        <v>2942.44</v>
+        <v>622455</v>
+      </c>
+      <c r="C4" s="6">
+        <v>47417.82</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>697057.56</v>
+        <v>575037.18000000005</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.42034857142857146</v>
+        <v>7.6178711714099814</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -6702,18 +6688,18 @@
         <v>18</v>
       </c>
       <c r="B5" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C5" s="21">
-        <v>35612.36</v>
+        <v>603888</v>
+      </c>
+      <c r="C5" s="6">
+        <v>87054.58</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>664387.64</v>
+        <v>516833.42</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>5.0874800000000002</v>
+        <v>14.415683040563813</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -6721,18 +6707,18 @@
         <v>1095</v>
       </c>
       <c r="B6" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C6" s="21">
-        <v>31923.29</v>
+        <v>569069</v>
+      </c>
+      <c r="C6" s="6">
+        <v>165642.81</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>668076.71</v>
+        <v>403426.19</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>4.5604700000000005</v>
+        <v>29.107684656869381</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -6740,18 +6726,18 @@
         <v>19</v>
       </c>
       <c r="B7" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C7" s="21">
-        <v>17204.330000000002</v>
+        <v>638825</v>
+      </c>
+      <c r="C7" s="6">
+        <v>98057.77</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>682795.67</v>
+        <v>540767.23</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>2.4577614285714287</v>
+        <v>15.349707666418816</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -6759,18 +6745,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="11">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="C8" s="6">
-        <v>0</v>
+        <v>206352.12</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>793647.88</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.635211999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -6778,18 +6764,18 @@
         <v>1096</v>
       </c>
       <c r="B9" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C9" s="21">
-        <v>21290.58</v>
+        <v>456022</v>
+      </c>
+      <c r="C9" s="6">
+        <v>60618.21</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>678709.42</v>
+        <v>395403.79</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>3.0415114285714289</v>
+        <v>13.292825784720911</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -6797,18 +6783,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C10" s="21">
-        <v>24236.799999999999</v>
+        <v>641124</v>
+      </c>
+      <c r="C10" s="6">
+        <v>108311.72</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>675763.19999999995</v>
+        <v>532812.28</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>3.4623999999999997</v>
+        <v>16.894036099100955</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -6816,18 +6802,18 @@
         <v>21</v>
       </c>
       <c r="B11" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C11" s="21">
-        <v>73950.86</v>
+        <v>712265</v>
+      </c>
+      <c r="C11" s="6">
+        <v>164351.42000000001</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>626049.14</v>
+        <v>547913.57999999996</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>10.564408571428572</v>
+        <v>23.074476494001534</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -6835,18 +6821,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C12" s="21">
-        <v>8445.7000000000007</v>
+        <v>613162</v>
+      </c>
+      <c r="C12" s="6">
+        <v>57756.44</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>691554.3</v>
+        <v>555405.56000000006</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>1.2065285714285716</v>
+        <v>9.4194421702584314</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -6854,18 +6840,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C13" s="21">
-        <v>20286.259999999998</v>
+        <v>621998</v>
+      </c>
+      <c r="C13" s="7">
+        <v>82226.080000000002</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>679713.74</v>
+        <v>539771.92000000004</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>2.8980371428571425</v>
+        <v>13.219669516622242</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -6873,18 +6859,18 @@
         <v>22</v>
       </c>
       <c r="B14" s="11">
-        <v>700000</v>
-      </c>
-      <c r="C14" s="21">
-        <v>27235.56</v>
+        <v>679972</v>
+      </c>
+      <c r="C14" s="6">
+        <v>97691.98</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>672764.44</v>
+        <v>582280.02</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>3.8907942857142861</v>
+        <v>14.367059231850723</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -6925,18 +6911,18 @@
         <v>1179</v>
       </c>
       <c r="B18" s="11">
-        <v>1600000</v>
+        <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>182099.52</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>1600000</v>
+        <v>1187900.48</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.291935766423357</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -6944,18 +6930,18 @@
         <v>23</v>
       </c>
       <c r="B19" s="11">
-        <v>3000000</v>
-      </c>
-      <c r="C19" s="21">
-        <v>1024787.79</v>
+        <v>3700000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1512084.19</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>1975212.21</v>
+        <v>2187915.81</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>34.159593000000001</v>
+        <v>40.867140270270269</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -6964,19 +6950,19 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B3:B19)</f>
-        <v>13000000</v>
+        <v>12675601</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>1294875.9300000002</v>
+        <v>2883825.1799999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>11705124.07</v>
+        <v>9791775.8200000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>9.9605840769230785</v>
+        <v>22.750993660971183</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -601,15 +601,15 @@
         <v>446821</v>
       </c>
       <c r="C3" s="6">
-        <v>47273.86</v>
+        <v>156428.25</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>399547.14</v>
+        <v>290392.75</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>10.580044357807713</v>
+        <v>35.009153553660191</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -620,15 +620,15 @@
         <v>622455</v>
       </c>
       <c r="C4" s="6">
-        <v>88969.72</v>
+        <v>266785.03999999998</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>533485.28</v>
+        <v>355669.96</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>14.293357752769277</v>
+        <v>42.86013286101003</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -639,15 +639,15 @@
         <v>603888</v>
       </c>
       <c r="C5" s="6">
-        <v>158149.62</v>
+        <v>341663.66</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>445738.38</v>
+        <v>262224.34000000003</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>26.188568078849055</v>
+        <v>56.577322284927</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -658,15 +658,15 @@
         <v>569069</v>
       </c>
       <c r="C6" s="6">
-        <v>251855.27</v>
+        <v>232554.07</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>317213.73</v>
+        <v>336514.93</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>44.257422210663385</v>
+        <v>40.865706970507972</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -677,15 +677,15 @@
         <v>638825</v>
       </c>
       <c r="C7" s="6">
-        <v>176825.47</v>
+        <v>490980.88</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>461999.53</v>
+        <v>147844.12</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>27.679798066763198</v>
+        <v>76.856866904081713</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -696,15 +696,15 @@
         <v>1000000</v>
       </c>
       <c r="C8" s="6">
-        <v>326559.03999999998</v>
+        <v>151236.99</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>673440.96</v>
+        <v>848763.01</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>32.655904</v>
+        <v>15.123698999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -715,15 +715,15 @@
         <v>456022</v>
       </c>
       <c r="C9" s="6">
-        <v>116421.27</v>
+        <v>257121.08</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>339600.73</v>
+        <v>198900.92</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>25.529748564762226</v>
+        <v>56.383481498699616</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -734,15 +734,15 @@
         <v>641124</v>
       </c>
       <c r="C10" s="6">
-        <v>167016.6</v>
+        <v>310395.06</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>474107.4</v>
+        <v>330728.94</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>26.050592397102591</v>
+        <v>48.414200685046886</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -753,15 +753,15 @@
         <v>712265</v>
       </c>
       <c r="C11" s="6">
-        <v>217148.7</v>
+        <v>135194.48000000001</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>495116.3</v>
+        <v>577070.52</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>30.487065909457858</v>
+        <v>18.980924234659856</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -772,15 +772,15 @@
         <v>613162</v>
       </c>
       <c r="C12" s="6">
-        <v>116124.72</v>
+        <v>112110.01</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>497037.28</v>
+        <v>501051.99</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>18.938668736810175</v>
+        <v>18.283913549763358</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -791,15 +791,15 @@
         <v>621998</v>
       </c>
       <c r="C13" s="7">
-        <v>144487.70000000001</v>
+        <v>227737.32</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>477510.3</v>
+        <v>394260.68</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>23.229608455332656</v>
+        <v>36.613834771172904</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -810,15 +810,15 @@
         <v>679972</v>
       </c>
       <c r="C14" s="6">
-        <v>179675.1</v>
+        <v>251812.8</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>500296.9</v>
+        <v>428159.2</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>26.423896866341554</v>
+        <v>37.032818998429342</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -862,15 +862,15 @@
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>383359.08</v>
+        <v>465578.95</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>986640.91999999993</v>
+        <v>904421.05</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>27.982414598540146</v>
+        <v>33.983864963503649</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -881,15 +881,15 @@
         <v>3700000</v>
       </c>
       <c r="C19" s="6">
-        <v>1613412.19</v>
+        <v>2873327.09</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>2086587.81</v>
+        <v>826672.91000000015</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>43.605734864864864</v>
+        <v>77.657488918918915</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -902,15 +902,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>3987278.34</v>
+        <v>6272925.6799999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>8688322.6600000001</v>
+        <v>6402675.3200000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>31.45632573950537</v>
+        <v>49.488191368598613</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -601,15 +601,15 @@
         <v>446821</v>
       </c>
       <c r="C3" s="6">
-        <v>156428.25</v>
+        <v>280269.03999999998</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>290392.75</v>
+        <v>166551.96000000002</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>35.009153553660191</v>
+        <v>62.72512706430539</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -620,15 +620,15 @@
         <v>622455</v>
       </c>
       <c r="C4" s="6">
-        <v>266785.03999999998</v>
+        <v>345245.62</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>355669.96</v>
+        <v>277209.38</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>42.86013286101003</v>
+        <v>55.465153304254926</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -639,15 +639,15 @@
         <v>603888</v>
       </c>
       <c r="C5" s="6">
-        <v>341663.66</v>
+        <v>420628.6</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>262224.34000000003</v>
+        <v>183259.40000000002</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>56.577322284927</v>
+        <v>69.653412553321147</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -658,15 +658,15 @@
         <v>569069</v>
       </c>
       <c r="C6" s="6">
-        <v>232554.07</v>
+        <v>286045.64</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>336514.93</v>
+        <v>283023.35999999999</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>40.865706970507972</v>
+        <v>50.265546005844641</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -677,15 +677,15 @@
         <v>638825</v>
       </c>
       <c r="C7" s="6">
-        <v>490980.88</v>
+        <v>625677.96</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>147844.12</v>
+        <v>13147.040000000037</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>76.856866904081713</v>
+        <v>97.941996634446042</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -696,15 +696,15 @@
         <v>1000000</v>
       </c>
       <c r="C8" s="6">
-        <v>151236.99</v>
+        <v>203817.25</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>848763.01</v>
+        <v>796182.75</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>15.123698999999998</v>
+        <v>20.381724999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -715,15 +715,15 @@
         <v>456022</v>
       </c>
       <c r="C9" s="6">
-        <v>257121.08</v>
+        <v>309160.62</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>198900.92</v>
+        <v>146861.38</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>56.383481498699616</v>
+        <v>67.795110762200068</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -734,15 +734,15 @@
         <v>641124</v>
       </c>
       <c r="C10" s="6">
-        <v>310395.06</v>
+        <v>352372.34</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>330728.94</v>
+        <v>288751.65999999997</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>48.414200685046886</v>
+        <v>54.961651724159452</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -753,15 +753,15 @@
         <v>712265</v>
       </c>
       <c r="C11" s="6">
-        <v>135194.48000000001</v>
+        <v>178938.23999999999</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>577070.52</v>
+        <v>533326.76</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>18.980924234659856</v>
+        <v>25.1224249401557</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -772,15 +772,15 @@
         <v>613162</v>
       </c>
       <c r="C12" s="6">
-        <v>112110.01</v>
+        <v>170801.96</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>501051.99</v>
+        <v>442360.04000000004</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>18.283913549763358</v>
+        <v>27.855927144865468</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -791,15 +791,15 @@
         <v>621998</v>
       </c>
       <c r="C13" s="7">
-        <v>227737.32</v>
+        <v>266831.86</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>394260.68</v>
+        <v>355166.14</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>36.613834771172904</v>
+        <v>42.899150801127981</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -810,15 +810,15 @@
         <v>679972</v>
       </c>
       <c r="C14" s="6">
-        <v>251812.8</v>
+        <v>304894.14</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>428159.2</v>
+        <v>375077.86</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>37.032818998429342</v>
+        <v>44.839219850229128</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -862,15 +862,15 @@
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>465578.95</v>
+        <v>394335.99</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>904421.05</v>
+        <v>975664.01</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>33.983864963503649</v>
+        <v>28.783648905109487</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -881,15 +881,15 @@
         <v>3700000</v>
       </c>
       <c r="C19" s="6">
-        <v>2873327.09</v>
+        <v>3886764.82</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>826672.91000000015</v>
+        <v>-186764.81999999983</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>77.657488918918915</v>
+        <v>105.04769783783783</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -902,15 +902,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>6272925.6799999997</v>
+        <v>8025784.0800000001</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>6402675.3200000003</v>
+        <v>4649816.92</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>49.488191368598613</v>
+        <v>63.316793262899331</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -19,9 +19,6 @@
     <t>Hüseyin Arslangiray</t>
   </si>
   <si>
-    <t>Mehmet Diyar</t>
-  </si>
-  <si>
     <t>Özkan Hatayilli</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>TOPLAM</t>
   </si>
   <si>
-    <t>Ahmet Albayrak</t>
-  </si>
-  <si>
     <t>Atilla Varlı</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>SICAK SATIŞ</t>
+  </si>
+  <si>
+    <t>Mustafa Başıkara</t>
+  </si>
+  <si>
+    <t>Ömer Karahan</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -578,247 +578,247 @@
     </row>
     <row r="2" spans="1:5" ht="22.5">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8">
-        <v>446821</v>
+        <v>622470</v>
       </c>
       <c r="C3" s="6">
-        <v>280269.03999999998</v>
+        <v>375813.39</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>166551.96000000002</v>
+        <v>246656.61</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>62.72512706430539</v>
+        <v>60.37453853197745</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
-        <v>622455</v>
+        <v>603890</v>
       </c>
       <c r="C4" s="6">
-        <v>345245.62</v>
+        <v>525987.46</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>277209.38</v>
+        <v>77902.540000000037</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>55.465153304254926</v>
+        <v>87.099879117057739</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>603888</v>
+        <v>569070</v>
       </c>
       <c r="C5" s="6">
-        <v>420628.6</v>
+        <v>506971.99</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>183259.40000000002</v>
+        <v>62098.010000000009</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>69.653412553321147</v>
+        <v>89.087808178255756</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>569069</v>
+        <v>638825</v>
       </c>
       <c r="C6" s="6">
-        <v>286045.64</v>
+        <v>420653.16</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>283023.35999999999</v>
+        <v>218171.84000000003</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>50.265546005844641</v>
+        <v>65.847948968809916</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>638825</v>
+        <v>1000000</v>
       </c>
       <c r="C7" s="6">
-        <v>625677.96</v>
+        <v>830978.32</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>13147.040000000037</v>
+        <v>169021.68000000005</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>97.941996634446042</v>
+        <v>83.097831999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
-        <v>1000000</v>
+        <v>456025</v>
       </c>
       <c r="C8" s="6">
-        <v>203817.25</v>
+        <v>270665</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>796182.75</v>
+        <v>185360</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>20.381724999999999</v>
+        <v>59.353105641138093</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B9" s="8">
-        <v>456022</v>
+        <v>641125</v>
       </c>
       <c r="C9" s="6">
-        <v>309160.62</v>
+        <v>470966.14</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>146861.38</v>
+        <v>170158.86</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>67.795110762200068</v>
+        <v>73.459331643595249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
       <c r="A10" s="6" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8">
-        <v>641124</v>
+        <v>712265</v>
       </c>
       <c r="C10" s="6">
-        <v>352372.34</v>
+        <v>407101.26</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>288751.65999999997</v>
+        <v>305163.74</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>54.961651724159452</v>
+        <v>57.155870357240637</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8">
-        <v>712265</v>
+        <v>613170</v>
       </c>
       <c r="C11" s="6">
-        <v>178938.23999999999</v>
+        <v>258670</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>533326.76</v>
+        <v>354500</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>25.1224249401557</v>
+        <v>42.185690754603129</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
       <c r="A12" s="6" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8">
-        <v>613162</v>
+        <v>446620</v>
       </c>
       <c r="C12" s="6">
-        <v>170801.96</v>
+        <v>226996.13</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>442360.04000000004</v>
+        <v>219623.87</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>27.855927144865468</v>
+        <v>50.825339214544805</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="8">
-        <v>621998</v>
+        <v>622000</v>
       </c>
       <c r="C13" s="7">
-        <v>266831.86</v>
+        <v>366209.37</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>355166.14</v>
+        <v>255790.63</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>42.899150801127981</v>
+        <v>58.876104501607713</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
       <c r="A14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
-        <v>679972</v>
+        <v>679980</v>
       </c>
       <c r="C14" s="6">
-        <v>304894.14</v>
+        <v>443513.74</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>375077.86</v>
+        <v>236466.26</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>44.839219850229128</v>
+        <v>65.224527191976236</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -830,7 +830,7 @@
     </row>
     <row r="16" spans="1:5" ht="23.25">
       <c r="A16" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -839,78 +839,78 @@
     </row>
     <row r="17" spans="1:5" ht="22.5">
       <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="23.25">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>394335.99</v>
+        <v>673059.57</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>975664.01</v>
+        <v>696940.43</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>28.783648905109487</v>
+        <v>49.128435766423351</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="8">
         <v>3700000</v>
       </c>
       <c r="C19" s="6">
-        <v>3886764.82</v>
+        <v>4140946.08</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-186764.81999999983</v>
+        <v>-440946.08000000007</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>105.04769783783783</v>
+        <v>111.91746162162163</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
         <f>SUM(B3:B19)</f>
-        <v>12675601</v>
+        <v>12675440</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>8025784.0800000001</v>
+        <v>9918531.6099999994</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>4649816.92</v>
+        <v>2756908.3900000006</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>63.316793262899331</v>
+        <v>78.24999850103822</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,6 +565,7 @@
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1">
@@ -601,15 +602,15 @@
         <v>622470</v>
       </c>
       <c r="C3" s="6">
-        <v>375813.39</v>
+        <v>453029.31</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>246656.61</v>
+        <v>169440.69</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>60.37453853197745</v>
+        <v>72.779300207238904</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -620,15 +621,15 @@
         <v>603890</v>
       </c>
       <c r="C4" s="6">
-        <v>525987.46</v>
+        <v>569944.06000000006</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>77902.540000000037</v>
+        <v>33945.939999999944</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>87.099879117057739</v>
+        <v>94.378787527529866</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -639,15 +640,15 @@
         <v>569070</v>
       </c>
       <c r="C5" s="6">
-        <v>506971.99</v>
+        <v>598867.68999999994</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>62098.010000000009</v>
+        <v>-29797.689999999944</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>89.087808178255756</v>
+        <v>105.23620819934278</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -658,15 +659,15 @@
         <v>638825</v>
       </c>
       <c r="C6" s="6">
-        <v>420653.16</v>
+        <v>498738.32</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>218171.84000000003</v>
+        <v>140086.68</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>65.847948968809916</v>
+        <v>78.071196337025015</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -677,15 +678,15 @@
         <v>1000000</v>
       </c>
       <c r="C7" s="6">
-        <v>830978.32</v>
+        <v>946167.6</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>169021.68000000005</v>
+        <v>53832.400000000023</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>83.097831999999997</v>
+        <v>94.616759999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -696,15 +697,15 @@
         <v>456025</v>
       </c>
       <c r="C8" s="6">
-        <v>270665</v>
+        <v>276471.75</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>185360</v>
+        <v>179553.25</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>59.353105641138093</v>
+        <v>60.626445918535168</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -715,15 +716,15 @@
         <v>641125</v>
       </c>
       <c r="C9" s="6">
-        <v>470966.14</v>
+        <v>564484.48</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>170158.86</v>
+        <v>76640.520000000019</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>73.459331643595249</v>
+        <v>88.045931760577105</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -734,15 +735,15 @@
         <v>712265</v>
       </c>
       <c r="C10" s="6">
-        <v>407101.26</v>
+        <v>504520.7</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>305163.74</v>
+        <v>207744.3</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>57.155870357240637</v>
+        <v>70.833285364295591</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -753,15 +754,15 @@
         <v>613170</v>
       </c>
       <c r="C11" s="6">
-        <v>258670</v>
+        <v>329447.86</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>354500</v>
+        <v>283722.14</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>42.185690754603129</v>
+        <v>53.728633168615552</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -772,15 +773,15 @@
         <v>446620</v>
       </c>
       <c r="C12" s="6">
-        <v>226996.13</v>
+        <v>254677.82</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>219623.87</v>
+        <v>191942.18</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>50.825339214544805</v>
+        <v>57.023380054632575</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -791,15 +792,15 @@
         <v>622000</v>
       </c>
       <c r="C13" s="7">
-        <v>366209.37</v>
+        <v>460776.43</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>255790.63</v>
+        <v>161223.57</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>58.876104501607713</v>
+        <v>74.079811897106111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -810,15 +811,15 @@
         <v>679980</v>
       </c>
       <c r="C14" s="6">
-        <v>443513.74</v>
+        <v>582496.38</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>236466.26</v>
+        <v>97483.62</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>65.224527191976236</v>
+        <v>85.663751875055141</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -862,15 +863,15 @@
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>673059.57</v>
+        <v>916292.73</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>696940.43</v>
+        <v>453707.27</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>49.128435766423351</v>
+        <v>66.88268102189781</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -881,15 +882,15 @@
         <v>3700000</v>
       </c>
       <c r="C19" s="6">
-        <v>4140946.08</v>
+        <v>4639107.28</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-440946.08000000007</v>
+        <v>-939107.28000000026</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>111.91746162162163</v>
+        <v>125.38127783783784</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -902,15 +903,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>9918531.6099999994</v>
+        <v>11595022.41</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>2756908.3900000006</v>
+        <v>1080417.5899999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>78.24999850103822</v>
+        <v>91.476291237227272</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,15 +602,15 @@
         <v>622470</v>
       </c>
       <c r="C3" s="6">
-        <v>453029.31</v>
+        <v>566281.31000000006</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>169440.69</v>
+        <v>56188.689999999944</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>72.779300207238904</v>
+        <v>90.973269394508989</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -621,15 +621,15 @@
         <v>603890</v>
       </c>
       <c r="C4" s="6">
-        <v>569944.06000000006</v>
+        <v>696155.83</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>33945.939999999944</v>
+        <v>-92265.829999999958</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>94.378787527529866</v>
+        <v>115.27858219212108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -640,15 +640,15 @@
         <v>569070</v>
       </c>
       <c r="C5" s="6">
-        <v>598867.68999999994</v>
+        <v>714265.68</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-29797.689999999944</v>
+        <v>-145195.68000000005</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>105.23620819934278</v>
+        <v>125.51455532711267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -659,15 +659,15 @@
         <v>638825</v>
       </c>
       <c r="C6" s="6">
-        <v>498738.32</v>
+        <v>607721.26</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>140086.68</v>
+        <v>31103.739999999991</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>78.071196337025015</v>
+        <v>95.131101631902325</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -678,15 +678,15 @@
         <v>1000000</v>
       </c>
       <c r="C7" s="6">
-        <v>946167.6</v>
+        <v>1096214.71</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>53832.400000000023</v>
+        <v>-96214.709999999963</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>94.616759999999999</v>
+        <v>109.621471</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -697,15 +697,15 @@
         <v>456025</v>
       </c>
       <c r="C8" s="6">
-        <v>276471.75</v>
+        <v>506699.34</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>179553.25</v>
+        <v>-50674.340000000026</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>60.626445918535168</v>
+        <v>111.11218463900006</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -716,15 +716,15 @@
         <v>641125</v>
       </c>
       <c r="C9" s="6">
-        <v>564484.48</v>
+        <v>581423.97</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>76640.520000000019</v>
+        <v>59701.030000000028</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>88.045931760577105</v>
+        <v>90.688082667186578</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -735,15 +735,15 @@
         <v>712265</v>
       </c>
       <c r="C10" s="6">
-        <v>504520.7</v>
+        <v>666649.42000000004</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>207744.3</v>
+        <v>45615.579999999958</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>70.833285364295591</v>
+        <v>93.595701038237181</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -754,15 +754,15 @@
         <v>613170</v>
       </c>
       <c r="C11" s="6">
-        <v>329447.86</v>
+        <v>413957.17</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>283722.14</v>
+        <v>199212.83000000002</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>53.728633168615552</v>
+        <v>67.510995319405708</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -773,15 +773,15 @@
         <v>446620</v>
       </c>
       <c r="C12" s="6">
-        <v>254677.82</v>
+        <v>437308.36</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>191942.18</v>
+        <v>9311.640000000014</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>57.023380054632575</v>
+        <v>97.915086650844117</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -792,15 +792,15 @@
         <v>622000</v>
       </c>
       <c r="C13" s="7">
-        <v>460776.43</v>
+        <v>578118.18999999994</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>161223.57</v>
+        <v>43881.810000000056</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>74.079811897106111</v>
+        <v>92.945046623794198</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -811,15 +811,15 @@
         <v>679980</v>
       </c>
       <c r="C14" s="6">
-        <v>582496.38</v>
+        <v>692715.8</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>97483.62</v>
+        <v>-12735.800000000047</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>85.663751875055141</v>
+        <v>101.87296685196624</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -863,15 +863,15 @@
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>916292.73</v>
+        <v>1305592.4099999999</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>453707.27</v>
+        <v>64407.590000000084</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>66.88268102189781</v>
+        <v>95.298716058394149</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -882,15 +882,15 @@
         <v>3700000</v>
       </c>
       <c r="C19" s="6">
-        <v>4639107.28</v>
+        <v>4648210.29</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-939107.28000000026</v>
+        <v>-948210.29</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>125.38127783783784</v>
+        <v>125.62730513513513</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -903,15 +903,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>11595022.41</v>
+        <v>13511313.739999998</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>1080417.5899999999</v>
+        <v>-835873.73999999836</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>91.476291237227272</v>
+        <v>106.59443569611784</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,15 +602,15 @@
         <v>622470</v>
       </c>
       <c r="C3" s="6">
-        <v>566281.31000000006</v>
+        <v>625082.27</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>56188.689999999944</v>
+        <v>-2612.2700000000186</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>90.973269394508989</v>
+        <v>100.41966199174259</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -621,15 +621,15 @@
         <v>603890</v>
       </c>
       <c r="C4" s="6">
-        <v>696155.83</v>
+        <v>734868.69</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-92265.829999999958</v>
+        <v>-130978.68999999994</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>115.27858219212108</v>
+        <v>121.68916358939542</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -640,15 +640,15 @@
         <v>569070</v>
       </c>
       <c r="C5" s="6">
-        <v>714265.68</v>
+        <v>732284.35</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-145195.68000000005</v>
+        <v>-163214.34999999998</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>125.51455532711267</v>
+        <v>128.68089163020366</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -659,15 +659,15 @@
         <v>638825</v>
       </c>
       <c r="C6" s="6">
-        <v>607721.26</v>
+        <v>642728.39</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>31103.739999999991</v>
+        <v>-3903.390000000014</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>95.131101631902325</v>
+        <v>100.61102649395374</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -678,15 +678,15 @@
         <v>1000000</v>
       </c>
       <c r="C7" s="6">
-        <v>1096214.71</v>
+        <v>1164844.1499999999</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-96214.709999999963</v>
+        <v>-164844.14999999991</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>109.621471</v>
+        <v>116.48441499999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -697,15 +697,15 @@
         <v>456025</v>
       </c>
       <c r="C8" s="6">
-        <v>506699.34</v>
+        <v>560380.17000000004</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>-50674.340000000026</v>
+        <v>-104355.17000000004</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>111.11218463900006</v>
+        <v>122.88365111561868</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -716,15 +716,15 @@
         <v>641125</v>
       </c>
       <c r="C9" s="6">
-        <v>581423.97</v>
+        <v>665929</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>59701.030000000028</v>
+        <v>-24804</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>90.688082667186578</v>
+        <v>103.8688243322285</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -735,15 +735,15 @@
         <v>712265</v>
       </c>
       <c r="C10" s="6">
-        <v>666649.42000000004</v>
+        <v>732026.82</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>45615.579999999958</v>
+        <v>-19761.819999999949</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>93.595701038237181</v>
+        <v>102.77450387145234</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -754,15 +754,15 @@
         <v>613170</v>
       </c>
       <c r="C11" s="6">
-        <v>413957.17</v>
+        <v>428924.84</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>199212.83000000002</v>
+        <v>184245.15999999997</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>67.510995319405708</v>
+        <v>69.952026354844506</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -773,15 +773,15 @@
         <v>446620</v>
       </c>
       <c r="C12" s="6">
-        <v>437308.36</v>
+        <v>463435.92</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>9311.640000000014</v>
+        <v>-16815.919999999984</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>97.915086650844117</v>
+        <v>103.76515158300121</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -792,15 +792,15 @@
         <v>622000</v>
       </c>
       <c r="C13" s="7">
-        <v>578118.18999999994</v>
+        <v>631517.93999999994</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>43881.810000000056</v>
+        <v>-9517.9399999999441</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>92.945046623794198</v>
+        <v>101.53021543408359</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -811,15 +811,15 @@
         <v>679980</v>
       </c>
       <c r="C14" s="6">
-        <v>692715.8</v>
+        <v>738946.59</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>-12735.800000000047</v>
+        <v>-58966.589999999967</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>101.87296685196624</v>
+        <v>108.67181240624724</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -863,15 +863,15 @@
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>1305592.4099999999</v>
+        <v>1354783.96</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>64407.590000000084</v>
+        <v>15216.040000000037</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>95.298716058394149</v>
+        <v>98.8893401459854</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -903,15 +903,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>13511313.739999998</v>
+        <v>14123963.379999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>-835873.73999999836</v>
+        <v>-1448523.379999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>106.59443569611784</v>
+        <v>111.42779564259702</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/satis-hedef.xlsx
+++ b/satis-hedef.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,15 +602,15 @@
         <v>622470</v>
       </c>
       <c r="C3" s="6">
-        <v>625082.27</v>
+        <v>2221.7399999999998</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D20" si="0">B3-C3</f>
-        <v>-2612.2700000000186</v>
+        <v>620248.26</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">C3/B3%</f>
-        <v>100.41966199174259</v>
+        <v>0.35692322521567305</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25">
@@ -621,15 +621,15 @@
         <v>603890</v>
       </c>
       <c r="C4" s="6">
-        <v>734868.69</v>
+        <v>33465.19</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-130978.68999999994</v>
+        <v>570424.81000000006</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>121.68916358939542</v>
+        <v>5.541603603305238</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25">
@@ -640,15 +640,15 @@
         <v>569070</v>
       </c>
       <c r="C5" s="6">
-        <v>732284.35</v>
+        <v>42649.61</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-163214.34999999998</v>
+        <v>526420.39</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>128.68089163020366</v>
+        <v>7.4946157766179908</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25">
@@ -659,15 +659,15 @@
         <v>638825</v>
       </c>
       <c r="C6" s="6">
-        <v>642728.39</v>
+        <v>25643.29</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-3903.390000000014</v>
+        <v>613181.71</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>100.61102649395374</v>
+        <v>4.0141337612022072</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25">
@@ -678,15 +678,15 @@
         <v>1000000</v>
       </c>
       <c r="C7" s="6">
-        <v>1164844.1499999999</v>
+        <v>40905.32</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-164844.14999999991</v>
+        <v>959094.68</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>116.48441499999998</v>
+        <v>4.0905319999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25">
@@ -697,15 +697,15 @@
         <v>456025</v>
       </c>
       <c r="C8" s="6">
-        <v>560380.17000000004</v>
+        <v>20278.900000000001</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>-104355.17000000004</v>
+        <v>435746.1</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>122.88365111561868</v>
+        <v>4.4468833945507376</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25">
@@ -716,15 +716,15 @@
         <v>641125</v>
       </c>
       <c r="C9" s="6">
-        <v>665929</v>
+        <v>52158.2</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>-24804</v>
+        <v>588966.80000000005</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>103.8688243322285</v>
+        <v>8.1354182101774217</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
@@ -735,15 +735,15 @@
         <v>712265</v>
       </c>
       <c r="C10" s="6">
-        <v>732026.82</v>
+        <v>55605.56</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>-19761.819999999949</v>
+        <v>656659.43999999994</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>102.77450387145234</v>
+        <v>7.8068640183077926</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
@@ -754,15 +754,15 @@
         <v>613170</v>
       </c>
       <c r="C11" s="6">
-        <v>428924.84</v>
+        <v>5104.76</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>184245.15999999997</v>
+        <v>608065.24</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>69.952026354844506</v>
+        <v>0.83251952965735443</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25">
@@ -773,15 +773,15 @@
         <v>446620</v>
       </c>
       <c r="C12" s="6">
-        <v>463435.92</v>
+        <v>20805.349999999999</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>-16815.919999999984</v>
+        <v>425814.65</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>103.76515158300121</v>
+        <v>4.6584008777036408</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25">
@@ -792,15 +792,15 @@
         <v>622000</v>
       </c>
       <c r="C13" s="7">
-        <v>631517.93999999994</v>
+        <v>35435.370000000003</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>-9517.9399999999441</v>
+        <v>586564.63</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>101.53021543408359</v>
+        <v>5.6970048231511257</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23.25">
@@ -811,15 +811,15 @@
         <v>679980</v>
       </c>
       <c r="C14" s="6">
-        <v>738946.59</v>
+        <v>38483.599999999999</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>-58966.589999999967</v>
+        <v>641496.4</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>108.67181240624724</v>
+        <v>5.6595193976293414</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
@@ -863,15 +863,15 @@
         <v>1370000</v>
       </c>
       <c r="C18" s="6">
-        <v>1354783.96</v>
+        <v>21718.04</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>15216.040000000037</v>
+        <v>1348281.96</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>98.8893401459854</v>
+        <v>1.585258394160584</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25">
@@ -882,15 +882,15 @@
         <v>3700000</v>
       </c>
       <c r="C19" s="6">
-        <v>4648210.29</v>
+        <v>930738.84</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-948210.29</v>
+        <v>2769261.16</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>125.62730513513513</v>
+        <v>25.155103783783783</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25">
@@ -903,15 +903,15 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C3:C19)</f>
-        <v>14123963.379999999</v>
+        <v>1325213.77</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>-1448523.379999999</v>
+        <v>11350226.23</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>111.42779564259702</v>
+        <v>10.454972529553215</v>
       </c>
     </row>
     <row r="28" spans="1:5">
